--- a/xlsx/联合国大会2758号决议_intext.xlsx
+++ b/xlsx/联合国大会2758号决议_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2300">
   <si>
     <t>联合国大会2758号决议</t>
   </si>
@@ -29,7 +29,7 @@
     <t>联合国大会</t>
   </si>
   <si>
-    <t>政策_政策_美國_联合国大会2758号决议</t>
+    <t>体育运动_体育运动_南非_联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%86%B3%E8%AE%AE</t>
@@ -2612,6 +2612,90 @@
     <t>特殊的國與國關係</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%8D%E4%B8%80%E6%B2%92%E6%9C%89</t>
+  </si>
+  <si>
+    <t>四不一沒有</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%80%E4%B8%AD%E6%9E%B6%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>大一中架構</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E8%AD%98</t>
+  </si>
+  <si>
+    <t>台灣共識</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>台灣民族主義</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%B8%BB%E9%AB%94%E6%80%A7</t>
+  </si>
+  <si>
+    <t>臺灣主體性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>台灣獨立運動</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>台獨派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>台灣共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E5%B7%A6%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>台獨左派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E9%81%8B%E5%8B%95%E7%9A%84%E6%96%B0%E4%B8%96%E4%BB%A3%E7%B6%B1%E9%A0%98</t>
+  </si>
+  <si>
+    <t>台灣獨立運動的新世代綱領</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%8D%A8</t>
+  </si>
+  <si>
+    <t>天然獨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E9%9A%8E%E6%AE%B5%E8%AB%96</t>
+  </si>
+  <si>
+    <t>四階段論</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>獨台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%8D%A8</t>
+  </si>
+  <si>
+    <t>華獨</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%A8%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
@@ -2624,90 +2708,6 @@
     <t>中華民國是臺灣</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%8D%E4%B8%80%E6%B2%92%E6%9C%89</t>
-  </si>
-  <si>
-    <t>四不一沒有</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%80%E4%B8%AD%E6%9E%B6%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>大一中架構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E8%AD%98</t>
-  </si>
-  <si>
-    <t>台灣共識</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>台灣民族主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%B8%BB%E9%AB%94%E6%80%A7</t>
-  </si>
-  <si>
-    <t>臺灣主體性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>台灣獨立運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>台獨派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>台灣共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%8D%A8%E5%B7%A6%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>台獨左派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%8D%A8%E7%AB%8B%E9%81%8B%E5%8B%95%E7%9A%84%E6%96%B0%E4%B8%96%E4%BB%A3%E7%B6%B1%E9%A0%98</t>
-  </si>
-  <si>
-    <t>台灣獨立運動的新世代綱領</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%8D%A8</t>
-  </si>
-  <si>
-    <t>天然獨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E9%9A%8E%E6%AE%B5%E8%AB%96</t>
-  </si>
-  <si>
-    <t>四階段論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>獨台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%8D%A8</t>
-  </si>
-  <si>
-    <t>華獨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%EF%BC%88%E8%87%BA%E7%81%A3%EF%BC%89</t>
   </si>
   <si>
@@ -4352,6 +4352,12 @@
     <t>黎巴嫩內戰</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
@@ -6302,6 +6308,18 @@
     <t>六十一人叛徒集团案</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%94%AF%E4%B8%A4%E5%86%9B</t>
+  </si>
+  <si>
+    <t>三支两军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%C2%B7%E4%B8%80%E4%B8%89%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>五·一三事件</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E4%B8%83%E6%9A%B4%E5%8B%95</t>
   </si>
   <si>
@@ -6668,6 +6686,12 @@
     <t>马振扶公社中学事件</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E5%BA%86%E8%BD%AE%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>风庆轮事件</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/1974%E5%B9%B4%E4%BA%9A%E6%B4%B2%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
   </si>
   <si>
@@ -6864,12 +6888,6 @@
   </si>
   <si>
     <t>关于建国以来党的若干历史问题的决议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
-  </si>
-  <si>
-    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E9%9D%92%E5%A4%A7%E8%BF%94%E5%9F%8E</t>
@@ -7245,7 +7263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7502,7 +7520,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -7821,7 +7839,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -20030,7 +20048,7 @@
         <v>866</v>
       </c>
       <c r="G441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -20059,7 +20077,7 @@
         <v>868</v>
       </c>
       <c r="G442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -20169,10 +20187,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>875</v>
+        <v>405</v>
       </c>
       <c r="F446" t="s">
-        <v>876</v>
+        <v>406</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -20198,10 +20216,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F447" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -20227,10 +20245,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>405</v>
+        <v>877</v>
       </c>
       <c r="F448" t="s">
-        <v>406</v>
+        <v>878</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -20262,7 +20280,7 @@
         <v>880</v>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -20320,7 +20338,7 @@
         <v>884</v>
       </c>
       <c r="G451" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -28556,7 +28574,7 @@
         <v>1446</v>
       </c>
       <c r="G735" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H735" t="s">
         <v>4</v>
@@ -28759,7 +28777,7 @@
         <v>1460</v>
       </c>
       <c r="G742" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H742" t="s">
         <v>4</v>
@@ -28788,7 +28806,7 @@
         <v>1462</v>
       </c>
       <c r="G743" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -29333,10 +29351,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1281</v>
+        <v>1499</v>
       </c>
       <c r="F762" t="s">
-        <v>1282</v>
+        <v>1500</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -29362,10 +29380,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1499</v>
+        <v>1281</v>
       </c>
       <c r="F763" t="s">
-        <v>1500</v>
+        <v>1282</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -29884,10 +29902,10 @@
         <v>780</v>
       </c>
       <c r="E781" t="s">
-        <v>359</v>
+        <v>1535</v>
       </c>
       <c r="F781" t="s">
-        <v>360</v>
+        <v>1536</v>
       </c>
       <c r="G781" t="n">
         <v>1</v>
@@ -29913,10 +29931,10 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1535</v>
+        <v>359</v>
       </c>
       <c r="F782" t="s">
-        <v>1536</v>
+        <v>360</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -30180,7 +30198,7 @@
         <v>1554</v>
       </c>
       <c r="G791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -30209,7 +30227,7 @@
         <v>1556</v>
       </c>
       <c r="G792" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -30760,7 +30778,7 @@
         <v>1594</v>
       </c>
       <c r="G811" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H811" t="s">
         <v>4</v>
@@ -30789,7 +30807,7 @@
         <v>1596</v>
       </c>
       <c r="G812" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H812" t="s">
         <v>4</v>
@@ -31050,7 +31068,7 @@
         <v>1614</v>
       </c>
       <c r="G821" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H821" t="s">
         <v>4</v>
@@ -31079,7 +31097,7 @@
         <v>1616</v>
       </c>
       <c r="G822" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H822" t="s">
         <v>4</v>
@@ -31195,7 +31213,7 @@
         <v>1624</v>
       </c>
       <c r="G826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H826" t="s">
         <v>4</v>
@@ -31253,7 +31271,7 @@
         <v>1628</v>
       </c>
       <c r="G828" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H828" t="s">
         <v>4</v>
@@ -31514,7 +31532,7 @@
         <v>1646</v>
       </c>
       <c r="G837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H837" t="s">
         <v>4</v>
@@ -31543,7 +31561,7 @@
         <v>1648</v>
       </c>
       <c r="G838" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H838" t="s">
         <v>4</v>
@@ -31566,10 +31584,10 @@
         <v>838</v>
       </c>
       <c r="E839" t="s">
-        <v>1219</v>
+        <v>1649</v>
       </c>
       <c r="F839" t="s">
-        <v>1220</v>
+        <v>1650</v>
       </c>
       <c r="G839" t="n">
         <v>1</v>
@@ -31595,10 +31613,10 @@
         <v>839</v>
       </c>
       <c r="E840" t="s">
-        <v>1649</v>
+        <v>1219</v>
       </c>
       <c r="F840" t="s">
-        <v>1650</v>
+        <v>1220</v>
       </c>
       <c r="G840" t="n">
         <v>1</v>
@@ -31630,7 +31648,7 @@
         <v>1652</v>
       </c>
       <c r="G841" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -31659,7 +31677,7 @@
         <v>1654</v>
       </c>
       <c r="G842" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H842" t="s">
         <v>4</v>
@@ -31943,10 +31961,10 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>721</v>
+        <v>1673</v>
       </c>
       <c r="F852" t="s">
-        <v>722</v>
+        <v>1674</v>
       </c>
       <c r="G852" t="n">
         <v>1</v>
@@ -31972,10 +31990,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1673</v>
+        <v>721</v>
       </c>
       <c r="F853" t="s">
-        <v>1674</v>
+        <v>722</v>
       </c>
       <c r="G853" t="n">
         <v>1</v>
@@ -32094,7 +32112,7 @@
         <v>1682</v>
       </c>
       <c r="G857" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H857" t="s">
         <v>4</v>
@@ -32123,7 +32141,7 @@
         <v>1684</v>
       </c>
       <c r="G858" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H858" t="s">
         <v>4</v>
@@ -32291,10 +32309,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1377</v>
+        <v>1695</v>
       </c>
       <c r="F864" t="s">
-        <v>1378</v>
+        <v>1696</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -32320,13 +32338,13 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1695</v>
+        <v>1377</v>
       </c>
       <c r="F865" t="s">
-        <v>1696</v>
+        <v>1378</v>
       </c>
       <c r="G865" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H865" t="s">
         <v>4</v>
@@ -32355,7 +32373,7 @@
         <v>1698</v>
       </c>
       <c r="G866" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H866" t="s">
         <v>4</v>
@@ -32465,10 +32483,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1569</v>
+        <v>1705</v>
       </c>
       <c r="F870" t="s">
-        <v>1570</v>
+        <v>1706</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -32494,10 +32512,10 @@
         <v>870</v>
       </c>
       <c r="E871" t="s">
-        <v>1705</v>
+        <v>1571</v>
       </c>
       <c r="F871" t="s">
-        <v>1706</v>
+        <v>1572</v>
       </c>
       <c r="G871" t="n">
         <v>1</v>
@@ -32639,10 +32657,10 @@
         <v>875</v>
       </c>
       <c r="E876" t="s">
-        <v>1457</v>
+        <v>1715</v>
       </c>
       <c r="F876" t="s">
-        <v>1458</v>
+        <v>1716</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -32668,13 +32686,13 @@
         <v>876</v>
       </c>
       <c r="E877" t="s">
-        <v>1715</v>
+        <v>1459</v>
       </c>
       <c r="F877" t="s">
-        <v>1716</v>
+        <v>1460</v>
       </c>
       <c r="G877" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H877" t="s">
         <v>4</v>
@@ -32761,7 +32779,7 @@
         <v>1722</v>
       </c>
       <c r="G880" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H880" t="s">
         <v>4</v>
@@ -32848,7 +32866,7 @@
         <v>1728</v>
       </c>
       <c r="G883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H883" t="s">
         <v>4</v>
@@ -32877,7 +32895,7 @@
         <v>1730</v>
       </c>
       <c r="G884" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H884" t="s">
         <v>4</v>
@@ -32906,7 +32924,7 @@
         <v>1732</v>
       </c>
       <c r="G885" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H885" t="s">
         <v>4</v>
@@ -32935,7 +32953,7 @@
         <v>1734</v>
       </c>
       <c r="G886" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H886" t="s">
         <v>4</v>
@@ -33051,7 +33069,7 @@
         <v>1742</v>
       </c>
       <c r="G890" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H890" t="s">
         <v>4</v>
@@ -33080,7 +33098,7 @@
         <v>1744</v>
       </c>
       <c r="G891" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H891" t="s">
         <v>4</v>
@@ -33109,7 +33127,7 @@
         <v>1746</v>
       </c>
       <c r="G892" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H892" t="s">
         <v>4</v>
@@ -33138,7 +33156,7 @@
         <v>1748</v>
       </c>
       <c r="G893" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H893" t="s">
         <v>4</v>
@@ -33167,7 +33185,7 @@
         <v>1750</v>
       </c>
       <c r="G894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H894" t="s">
         <v>4</v>
@@ -33196,7 +33214,7 @@
         <v>1752</v>
       </c>
       <c r="G895" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H895" t="s">
         <v>4</v>
@@ -33863,7 +33881,7 @@
         <v>1798</v>
       </c>
       <c r="G918" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H918" t="s">
         <v>4</v>
@@ -33892,7 +33910,7 @@
         <v>1800</v>
       </c>
       <c r="G919" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H919" t="s">
         <v>4</v>
@@ -33921,7 +33939,7 @@
         <v>1802</v>
       </c>
       <c r="G920" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H920" t="s">
         <v>4</v>
@@ -35255,7 +35273,7 @@
         <v>1894</v>
       </c>
       <c r="G966" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H966" t="s">
         <v>4</v>
@@ -35284,7 +35302,7 @@
         <v>1896</v>
       </c>
       <c r="G967" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H967" t="s">
         <v>4</v>
@@ -35423,10 +35441,10 @@
         <v>971</v>
       </c>
       <c r="E972" t="s">
-        <v>1389</v>
+        <v>1905</v>
       </c>
       <c r="F972" t="s">
-        <v>1390</v>
+        <v>1906</v>
       </c>
       <c r="G972" t="n">
         <v>1</v>
@@ -35452,10 +35470,10 @@
         <v>972</v>
       </c>
       <c r="E973" t="s">
-        <v>1905</v>
+        <v>1389</v>
       </c>
       <c r="F973" t="s">
-        <v>1906</v>
+        <v>1390</v>
       </c>
       <c r="G973" t="n">
         <v>1</v>
@@ -35800,10 +35818,10 @@
         <v>984</v>
       </c>
       <c r="E985" t="s">
-        <v>1635</v>
+        <v>1929</v>
       </c>
       <c r="F985" t="s">
-        <v>1636</v>
+        <v>1930</v>
       </c>
       <c r="G985" t="n">
         <v>1</v>
@@ -35829,10 +35847,10 @@
         <v>985</v>
       </c>
       <c r="E986" t="s">
-        <v>1377</v>
+        <v>1637</v>
       </c>
       <c r="F986" t="s">
-        <v>1378</v>
+        <v>1638</v>
       </c>
       <c r="G986" t="n">
         <v>1</v>
@@ -35858,10 +35876,10 @@
         <v>986</v>
       </c>
       <c r="E987" t="s">
-        <v>1929</v>
+        <v>1377</v>
       </c>
       <c r="F987" t="s">
-        <v>1930</v>
+        <v>1378</v>
       </c>
       <c r="G987" t="n">
         <v>1</v>
@@ -35887,10 +35905,10 @@
         <v>987</v>
       </c>
       <c r="E988" t="s">
-        <v>1705</v>
+        <v>1931</v>
       </c>
       <c r="F988" t="s">
-        <v>1706</v>
+        <v>1932</v>
       </c>
       <c r="G988" t="n">
         <v>1</v>
@@ -35916,10 +35934,10 @@
         <v>988</v>
       </c>
       <c r="E989" t="s">
-        <v>1931</v>
+        <v>1707</v>
       </c>
       <c r="F989" t="s">
-        <v>1932</v>
+        <v>1708</v>
       </c>
       <c r="G989" t="n">
         <v>1</v>
@@ -35974,10 +35992,10 @@
         <v>990</v>
       </c>
       <c r="E991" t="s">
-        <v>1361</v>
+        <v>1935</v>
       </c>
       <c r="F991" t="s">
-        <v>1362</v>
+        <v>1936</v>
       </c>
       <c r="G991" t="n">
         <v>1</v>
@@ -36003,10 +36021,10 @@
         <v>991</v>
       </c>
       <c r="E992" t="s">
-        <v>1935</v>
+        <v>1361</v>
       </c>
       <c r="F992" t="s">
-        <v>1936</v>
+        <v>1362</v>
       </c>
       <c r="G992" t="n">
         <v>1</v>
@@ -36264,10 +36282,10 @@
         <v>1000</v>
       </c>
       <c r="E1001" t="s">
-        <v>1129</v>
+        <v>1953</v>
       </c>
       <c r="F1001" t="s">
-        <v>1130</v>
+        <v>1954</v>
       </c>
       <c r="G1001" t="n">
         <v>1</v>
@@ -36293,10 +36311,10 @@
         <v>1001</v>
       </c>
       <c r="E1002" t="s">
-        <v>1953</v>
+        <v>1129</v>
       </c>
       <c r="F1002" t="s">
-        <v>1954</v>
+        <v>1130</v>
       </c>
       <c r="G1002" t="n">
         <v>1</v>
@@ -36444,7 +36462,7 @@
         <v>1964</v>
       </c>
       <c r="G1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1007" t="s">
         <v>4</v>
@@ -36473,7 +36491,7 @@
         <v>1966</v>
       </c>
       <c r="G1008" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1008" t="s">
         <v>4</v>
@@ -36531,7 +36549,7 @@
         <v>1970</v>
       </c>
       <c r="G1010" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1010" t="s">
         <v>4</v>
@@ -36560,7 +36578,7 @@
         <v>1972</v>
       </c>
       <c r="G1011" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1011" t="s">
         <v>4</v>
@@ -37720,7 +37738,7 @@
         <v>2052</v>
       </c>
       <c r="G1051" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1051" t="s">
         <v>4</v>
@@ -37749,7 +37767,7 @@
         <v>2054</v>
       </c>
       <c r="G1052" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1052" t="s">
         <v>4</v>
@@ -37807,7 +37825,7 @@
         <v>2058</v>
       </c>
       <c r="G1054" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1054" t="s">
         <v>4</v>
@@ -37836,7 +37854,7 @@
         <v>2060</v>
       </c>
       <c r="G1055" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1055" t="s">
         <v>4</v>
@@ -37888,10 +37906,10 @@
         <v>1056</v>
       </c>
       <c r="E1057" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="F1057" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="G1057" t="n">
         <v>1</v>
@@ -38503,7 +38521,7 @@
         <v>2104</v>
       </c>
       <c r="G1078" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1078" t="s">
         <v>4</v>
@@ -38590,7 +38608,7 @@
         <v>2110</v>
       </c>
       <c r="G1081" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1081" t="s">
         <v>4</v>
@@ -39489,7 +39507,7 @@
         <v>2172</v>
       </c>
       <c r="G1112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1112" t="s">
         <v>4</v>
@@ -39576,7 +39594,7 @@
         <v>2178</v>
       </c>
       <c r="G1115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1115" t="s">
         <v>4</v>
@@ -39889,10 +39907,10 @@
         <v>1125</v>
       </c>
       <c r="E1126" t="s">
-        <v>1205</v>
+        <v>2199</v>
       </c>
       <c r="F1126" t="s">
-        <v>1206</v>
+        <v>2200</v>
       </c>
       <c r="G1126" t="n">
         <v>1</v>
@@ -39918,10 +39936,10 @@
         <v>1126</v>
       </c>
       <c r="E1127" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="F1127" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="G1127" t="n">
         <v>1</v>
@@ -39947,10 +39965,10 @@
         <v>1127</v>
       </c>
       <c r="E1128" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="F1128" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="G1128" t="n">
         <v>1</v>
@@ -39976,10 +39994,10 @@
         <v>1128</v>
       </c>
       <c r="E1129" t="s">
-        <v>2203</v>
+        <v>1205</v>
       </c>
       <c r="F1129" t="s">
-        <v>2204</v>
+        <v>1206</v>
       </c>
       <c r="G1129" t="n">
         <v>1</v>
@@ -40063,10 +40081,10 @@
         <v>1131</v>
       </c>
       <c r="E1132" t="s">
-        <v>1721</v>
+        <v>2209</v>
       </c>
       <c r="F1132" t="s">
-        <v>1722</v>
+        <v>2210</v>
       </c>
       <c r="G1132" t="n">
         <v>1</v>
@@ -40092,10 +40110,10 @@
         <v>1132</v>
       </c>
       <c r="E1133" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="F1133" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="G1133" t="n">
         <v>1</v>
@@ -40121,10 +40139,10 @@
         <v>1133</v>
       </c>
       <c r="E1134" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="F1134" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="G1134" t="n">
         <v>1</v>
@@ -40150,10 +40168,10 @@
         <v>1134</v>
       </c>
       <c r="E1135" t="s">
-        <v>2213</v>
+        <v>1723</v>
       </c>
       <c r="F1135" t="s">
-        <v>2214</v>
+        <v>1724</v>
       </c>
       <c r="G1135" t="n">
         <v>1</v>
@@ -40208,13 +40226,13 @@
         <v>1136</v>
       </c>
       <c r="E1137" t="s">
-        <v>1569</v>
+        <v>2217</v>
       </c>
       <c r="F1137" t="s">
-        <v>1570</v>
+        <v>2218</v>
       </c>
       <c r="G1137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1137" t="s">
         <v>4</v>
@@ -40237,13 +40255,13 @@
         <v>1137</v>
       </c>
       <c r="E1138" t="s">
-        <v>2039</v>
+        <v>2219</v>
       </c>
       <c r="F1138" t="s">
-        <v>2040</v>
+        <v>2220</v>
       </c>
       <c r="G1138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1138" t="s">
         <v>4</v>
@@ -40266,10 +40284,10 @@
         <v>1138</v>
       </c>
       <c r="E1139" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="F1139" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="G1139" t="n">
         <v>1</v>
@@ -40295,13 +40313,13 @@
         <v>1139</v>
       </c>
       <c r="E1140" t="s">
-        <v>2219</v>
+        <v>1571</v>
       </c>
       <c r="F1140" t="s">
-        <v>2220</v>
+        <v>1572</v>
       </c>
       <c r="G1140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1140" t="s">
         <v>4</v>
@@ -40324,13 +40342,13 @@
         <v>1140</v>
       </c>
       <c r="E1141" t="s">
-        <v>2221</v>
+        <v>2041</v>
       </c>
       <c r="F1141" t="s">
-        <v>2222</v>
+        <v>2042</v>
       </c>
       <c r="G1141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1141" t="s">
         <v>4</v>
@@ -41345,7 +41363,7 @@
         <v>2292</v>
       </c>
       <c r="G1176" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1176" t="s">
         <v>4</v>
@@ -41368,10 +41386,10 @@
         <v>1176</v>
       </c>
       <c r="E1177" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="F1177" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="G1177" t="n">
         <v>1</v>
@@ -41380,6 +41398,93 @@
         <v>4</v>
       </c>
       <c r="I1177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9">
+      <c r="A1178" s="1" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>1177</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>2296</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9">
+      <c r="A1179" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>1178</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>2298</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9">
+      <c r="A1180" s="1" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>1179</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>2299</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1180" t="n">
         <v>3</v>
       </c>
     </row>
